--- a/MVFI/OK CHAMPAGNE OK.xlsx
+++ b/MVFI/OK CHAMPAGNE OK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="86">
   <si>
     <t xml:space="preserve">Blanc </t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>"&gt;</t>
   </si>
   <si>
     <t>&lt;/nav&gt;</t>
@@ -344,9 +341,6 @@
   </si>
   <si>
     <t>&lt;nav class="navbar navbar-expand-lg navbar-light bg-light"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;a class="dropdown-item" href="list-</t>
   </si>
   <si>
     <t>&lt;ul class="nav-item dropdown"&gt; &lt;a  class="nav-link dropdown-toggle"  href="list-#Type"  id="navbarDropdown" role="button" data-toggle="dropdown" aria-haspopup="true" aria-expanded="false"&gt;</t>
@@ -734,7 +728,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D14" sqref="B4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,12 +740,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -762,47 +756,35 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
@@ -810,187 +792,133 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -998,7 +926,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -1009,684 +937,684 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -1694,7 +1622,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
@@ -1705,40 +1633,40 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -1746,7 +1674,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>70</v>
@@ -1757,54 +1685,54 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>71</v>
@@ -1812,10 +1740,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
         <v>72</v>
@@ -1823,54 +1751,54 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
         <v>71</v>
@@ -1878,7 +1806,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
